--- a/spreadsheets/MNPS Enrollment 19-20.xlsx
+++ b/spreadsheets/MNPS Enrollment 19-20.xlsx
@@ -2,26 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA12\capstone\capstone-da12\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F30503CA-FE33-459E-B322-937507FB487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CCA97B-C278-4F9A-9E46-B1DC14E9D8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A2DC511F-1FAB-4905-B299-F3180F78F370}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{A2DC511F-1FAB-4905-B299-F3180F78F370}"/>
   </bookViews>
   <sheets>
     <sheet name="Enrollment" sheetId="1" r:id="rId1"/>
-    <sheet name="Enrollment Numbers" sheetId="3" r:id="rId2"/>
-    <sheet name="Chart-ZipCodes with years" sheetId="4" r:id="rId3"/>
-    <sheet name="Stats 19-20" sheetId="2" r:id="rId4"/>
+    <sheet name="Stats 19-20" sheetId="2" r:id="rId2"/>
+    <sheet name="Enrollment Numbers" sheetId="3" r:id="rId3"/>
+    <sheet name="Zip Code Max Enrollments" sheetId="4" r:id="rId4"/>
+    <sheet name="Zip Code Min Enrollments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId5"/>
-    <pivotCache cacheId="31" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4482" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4514" uniqueCount="850">
   <si>
     <t>School Year</t>
   </si>
@@ -2584,6 +2585,12 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Zip Code with Max Enrollments</t>
+  </si>
+  <si>
+    <t>Zip Code with Min Enrollments</t>
   </si>
 </sst>
 </file>
@@ -2768,20 +2775,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -2823,13 +2830,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2932,7 +2945,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[MNPS Enrollment 19-20.xlsx]Chart-ZipCodes with years!PivotTable6</c:name>
+    <c:name>[MNPS Enrollment 19-20.xlsx]Zip Code Max Enrollments!PivotTable6</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -3035,7 +3048,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Chart-ZipCodes with years'!$B$1:$B$2</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3058,83 +3071,83 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Chart-ZipCodes with years'!$A$3:$A$30</c:f>
+              <c:f>'Zip Code Max Enrollments'!$A$3:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>37013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37027</c:v>
+                  <c:v>37211</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37072</c:v>
+                  <c:v>37207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37076</c:v>
+                  <c:v>37214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37080</c:v>
+                  <c:v>37216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37115</c:v>
+                  <c:v>37206</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37138</c:v>
+                  <c:v>37209</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37189</c:v>
+                  <c:v>37210</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>37203</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37204</c:v>
+                  <c:v>37115</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>37205</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37206</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>37207</c:v>
+                  <c:v>37220</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>37208</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37209</c:v>
+                  <c:v>37076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37210</c:v>
+                  <c:v>37215</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37211</c:v>
+                  <c:v>37204</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37218</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37189</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37027</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>37212</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>37214</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37215</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37216</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>37217</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37218</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>37220</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>37221</c:v>
+                  <c:v>37080</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>37228</c:v>
@@ -3147,7 +3160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Chart-ZipCodes with years'!$B$3:$B$30</c:f>
+              <c:f>'Zip Code Max Enrollments'!$B$3:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
@@ -3155,76 +3168,76 @@
                   <c:v>15027</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>751</c:v>
+                  <c:v>10826</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1319</c:v>
+                  <c:v>6214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2290</c:v>
+                  <c:v>5256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>555</c:v>
+                  <c:v>4618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3059</c:v>
+                  <c:v>4287</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1450</c:v>
+                  <c:v>3935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>761</c:v>
+                  <c:v>3738</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3715</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1693</c:v>
+                  <c:v>3059</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2675</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4287</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>6214</c:v>
+                  <c:v>2534</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2443</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3935</c:v>
+                  <c:v>2290</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3738</c:v>
+                  <c:v>2072</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10826</c:v>
+                  <c:v>1693</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>726</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>5256</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2072</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4618</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2898</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1039</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2534</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>1314</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>366</c:v>
@@ -3457,6 +3470,542 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[MNPS Enrollment 19-20.xlsx]Zip Code Min Enrollments!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Zip Code Min Enrollments'!$A$3:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>37228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37189</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37221</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37072</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37076</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37220</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37205</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37217</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37115</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37209</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37206</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37216</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37214</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37207</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37211</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37013</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Zip Code Min Enrollments'!$B$3:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3715</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3738</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3935</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4618</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5256</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6214</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16D5-4833-9DCD-AF713E5ECF67}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1961262672"/>
+        <c:axId val="1961263632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1961262672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961263632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1961263632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961262672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3497,7 +4046,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4054,6 +5159,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6552D846-02A9-CFEF-FEB7-09F9799448FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="erica" refreshedDate="45568.824334375" createdVersion="1" refreshedVersion="8" recordCount="168" upgradeOnRefresh="1" xr:uid="{535CECA2-E8D4-491A-91C5-D9F4F62D5498}">
   <cacheSource type="worksheet">
@@ -11153,7 +12299,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15EABD17-E7C8-4A99-B03E-883FF3DA4566}" name="PivotTable5" cacheId="27" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15EABD17-E7C8-4A99-B03E-883FF3DA4566}" name="PivotTable5" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1">
   <location ref="A1:D340" firstHeaderRow="2" firstDataRow="2" firstDataCol="3"/>
   <pivotFields count="34">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
@@ -12604,10 +13750,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C9C07BE-0684-4FAA-9175-393F3C91AEB2}" name="PivotTable6" cacheId="31" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C9C07BE-0684-4FAA-9175-393F3C91AEB2}" name="PivotTable6" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
   <location ref="A1:B30" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="descending">
       <items count="28">
         <item x="0"/>
         <item x="20"/>
@@ -12638,6 +13784,15 @@
         <item x="26"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField dataField="1" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
   </pivotFields>
@@ -12649,76 +13804,76 @@
       <x/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
     </i>
     <i>
       <x v="25"/>
@@ -12735,6 +13890,196 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Total Enrollment" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DF1DEDB-E713-4C8E-A92A-E0B03A614EBC}" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="1" indent="0" compact="0" compactData="0" gridDropZones="1" chartFormat="1">
+  <location ref="A1:B29" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="34">
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" includeNewItemsInFilter="1" sortType="ascending">
+      <items count="27">
+        <item x="0"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="14"/>
+        <item x="23"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="17"/>
+        <item x="21"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="18"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" numFmtId="1" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+    <pivotField compact="0" outline="0" showAll="0" includeNewItemsInFilter="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Total Enrollment" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -13055,7 +14400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2476269B-EE6B-4BDD-9828-886C6FE0EB08}">
   <dimension ref="A1:AH169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27376,6 +28721,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE00C6-5C26-44E3-86D4-07892AA0738B}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1">
+        <f>AVERAGE(Enrollment!G:G)</f>
+        <v>509.29166666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2">
+        <f>MEDIAN(Enrollment!G:G)</f>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B3">
+        <f>MIN(Enrollment!G:G)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="B4">
+        <f>MAX(Enrollment!G:G)</f>
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B8" s="9" t="str">
+        <f>_xlfn.XLOOKUP(B3,Enrollment!G:G,Enrollment!D:D)</f>
+        <v>Transitions at Bass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="B9" s="6" t="str">
+        <f>_xlfn.XLOOKUP(B4,Enrollment!G:G,Enrollment!D:D)</f>
+        <v>McGavock High</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00B1A57-802E-455F-80FF-C47A881A7183}">
   <dimension ref="A1:D340"/>
   <sheetViews>
@@ -27423,7 +28862,7 @@
       <c r="C3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>849</v>
       </c>
     </row>
@@ -27433,7 +28872,7 @@
         <v>677</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>849</v>
       </c>
     </row>
@@ -27445,7 +28884,7 @@
       <c r="C5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>241</v>
       </c>
     </row>
@@ -27455,7 +28894,7 @@
         <v>678</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>241</v>
       </c>
     </row>
@@ -27467,7 +28906,7 @@
       <c r="C7" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="17">
         <v>451</v>
       </c>
     </row>
@@ -27477,7 +28916,7 @@
         <v>679</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>451</v>
       </c>
     </row>
@@ -27489,7 +28928,7 @@
       <c r="C9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="17">
         <v>495</v>
       </c>
     </row>
@@ -27499,7 +28938,7 @@
         <v>680</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="18">
+      <c r="D10" s="17">
         <v>495</v>
       </c>
     </row>
@@ -27511,7 +28950,7 @@
       <c r="C11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>1889</v>
       </c>
     </row>
@@ -27521,7 +28960,7 @@
         <v>681</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="18">
+      <c r="D12" s="17">
         <v>1889</v>
       </c>
     </row>
@@ -27533,7 +28972,7 @@
       <c r="C13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>822</v>
       </c>
     </row>
@@ -27543,7 +28982,7 @@
         <v>682</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="18">
+      <c r="D14" s="17">
         <v>822</v>
       </c>
     </row>
@@ -27555,7 +28994,7 @@
       <c r="C15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>837</v>
       </c>
     </row>
@@ -27565,7 +29004,7 @@
         <v>683</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="18">
+      <c r="D16" s="17">
         <v>837</v>
       </c>
     </row>
@@ -27577,7 +29016,7 @@
       <c r="C17" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>622</v>
       </c>
     </row>
@@ -27587,7 +29026,7 @@
         <v>684</v>
       </c>
       <c r="C18" s="11"/>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>622</v>
       </c>
     </row>
@@ -27599,7 +29038,7 @@
       <c r="C19" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>335</v>
       </c>
     </row>
@@ -27609,7 +29048,7 @@
         <v>685</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>335</v>
       </c>
     </row>
@@ -27621,7 +29060,7 @@
       <c r="C21" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>344</v>
       </c>
     </row>
@@ -27631,7 +29070,7 @@
         <v>686</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="18">
+      <c r="D22" s="17">
         <v>344</v>
       </c>
     </row>
@@ -27643,7 +29082,7 @@
       <c r="C23" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="17">
         <v>206</v>
       </c>
     </row>
@@ -27653,7 +29092,7 @@
         <v>687</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="18">
+      <c r="D24" s="17">
         <v>206</v>
       </c>
     </row>
@@ -27665,7 +29104,7 @@
       <c r="C25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="17">
         <v>137</v>
       </c>
     </row>
@@ -27675,7 +29114,7 @@
         <v>688</v>
       </c>
       <c r="C26" s="11"/>
-      <c r="D26" s="18">
+      <c r="D26" s="17">
         <v>137</v>
       </c>
     </row>
@@ -27687,7 +29126,7 @@
       <c r="C27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="17">
         <v>602</v>
       </c>
     </row>
@@ -27697,7 +29136,7 @@
         <v>689</v>
       </c>
       <c r="C28" s="11"/>
-      <c r="D28" s="18">
+      <c r="D28" s="17">
         <v>602</v>
       </c>
     </row>
@@ -27709,7 +29148,7 @@
       <c r="C29" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="17">
         <v>1843</v>
       </c>
     </row>
@@ -27719,7 +29158,7 @@
         <v>690</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="18">
+      <c r="D30" s="17">
         <v>1843</v>
       </c>
     </row>
@@ -27731,7 +29170,7 @@
       <c r="C31" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="17">
         <v>262</v>
       </c>
     </row>
@@ -27741,7 +29180,7 @@
         <v>691</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="18">
+      <c r="D32" s="17">
         <v>262</v>
       </c>
     </row>
@@ -27753,7 +29192,7 @@
       <c r="C33" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="17">
         <v>88</v>
       </c>
     </row>
@@ -27763,7 +29202,7 @@
         <v>692</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="18">
+      <c r="D34" s="17">
         <v>88</v>
       </c>
     </row>
@@ -27775,7 +29214,7 @@
       <c r="C35" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="17">
         <v>328</v>
       </c>
     </row>
@@ -27785,7 +29224,7 @@
         <v>693</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="18">
+      <c r="D36" s="17">
         <v>328</v>
       </c>
     </row>
@@ -27797,7 +29236,7 @@
       <c r="C37" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="17">
         <v>527</v>
       </c>
     </row>
@@ -27807,7 +29246,7 @@
         <v>694</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="18">
+      <c r="D38" s="17">
         <v>527</v>
       </c>
     </row>
@@ -27819,7 +29258,7 @@
       <c r="C39" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="17">
         <v>304</v>
       </c>
     </row>
@@ -27829,7 +29268,7 @@
         <v>695</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="18">
+      <c r="D40" s="17">
         <v>304</v>
       </c>
     </row>
@@ -27841,7 +29280,7 @@
       <c r="C41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="17">
         <v>753</v>
       </c>
     </row>
@@ -27851,7 +29290,7 @@
         <v>696</v>
       </c>
       <c r="C42" s="11"/>
-      <c r="D42" s="18">
+      <c r="D42" s="17">
         <v>753</v>
       </c>
     </row>
@@ -27863,7 +29302,7 @@
       <c r="C43" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="17">
         <v>87</v>
       </c>
     </row>
@@ -27873,7 +29312,7 @@
         <v>697</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="18">
+      <c r="D44" s="17">
         <v>87</v>
       </c>
     </row>
@@ -27885,7 +29324,7 @@
       <c r="C45" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="17">
         <v>351</v>
       </c>
     </row>
@@ -27895,7 +29334,7 @@
         <v>698</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="18">
+      <c r="D46" s="17">
         <v>351</v>
       </c>
     </row>
@@ -27907,7 +29346,7 @@
       <c r="C47" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="17">
         <v>466</v>
       </c>
     </row>
@@ -27917,7 +29356,7 @@
         <v>699</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="18">
+      <c r="D48" s="17">
         <v>466</v>
       </c>
     </row>
@@ -27929,7 +29368,7 @@
       <c r="C49" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="17">
         <v>746</v>
       </c>
     </row>
@@ -27939,7 +29378,7 @@
         <v>700</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>746</v>
       </c>
     </row>
@@ -27951,7 +29390,7 @@
       <c r="C51" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="17">
         <v>280</v>
       </c>
     </row>
@@ -27961,7 +29400,7 @@
         <v>701</v>
       </c>
       <c r="C52" s="11"/>
-      <c r="D52" s="18">
+      <c r="D52" s="17">
         <v>280</v>
       </c>
     </row>
@@ -27973,7 +29412,7 @@
       <c r="C53" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="17">
         <v>561</v>
       </c>
     </row>
@@ -27983,7 +29422,7 @@
         <v>702</v>
       </c>
       <c r="C54" s="11"/>
-      <c r="D54" s="18">
+      <c r="D54" s="17">
         <v>561</v>
       </c>
     </row>
@@ -27995,7 +29434,7 @@
       <c r="C55" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="17">
         <v>389</v>
       </c>
     </row>
@@ -28005,7 +29444,7 @@
         <v>703</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="18">
+      <c r="D56" s="17">
         <v>389</v>
       </c>
     </row>
@@ -28017,7 +29456,7 @@
       <c r="C57" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D57" s="17">
         <v>763</v>
       </c>
     </row>
@@ -28027,7 +29466,7 @@
         <v>704</v>
       </c>
       <c r="C58" s="11"/>
-      <c r="D58" s="18">
+      <c r="D58" s="17">
         <v>763</v>
       </c>
     </row>
@@ -28039,7 +29478,7 @@
       <c r="C59" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D59" s="17">
         <v>352</v>
       </c>
     </row>
@@ -28049,7 +29488,7 @@
         <v>705</v>
       </c>
       <c r="C60" s="11"/>
-      <c r="D60" s="18">
+      <c r="D60" s="17">
         <v>352</v>
       </c>
     </row>
@@ -28061,7 +29500,7 @@
       <c r="C61" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D61" s="17">
         <v>603</v>
       </c>
     </row>
@@ -28071,7 +29510,7 @@
         <v>706</v>
       </c>
       <c r="C62" s="11"/>
-      <c r="D62" s="18">
+      <c r="D62" s="17">
         <v>603</v>
       </c>
     </row>
@@ -28083,7 +29522,7 @@
       <c r="C63" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D63" s="17">
         <v>582</v>
       </c>
     </row>
@@ -28093,7 +29532,7 @@
         <v>707</v>
       </c>
       <c r="C64" s="11"/>
-      <c r="D64" s="18">
+      <c r="D64" s="17">
         <v>582</v>
       </c>
     </row>
@@ -28105,7 +29544,7 @@
       <c r="C65" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="18">
+      <c r="D65" s="17">
         <v>674</v>
       </c>
     </row>
@@ -28115,7 +29554,7 @@
         <v>708</v>
       </c>
       <c r="C66" s="11"/>
-      <c r="D66" s="18">
+      <c r="D66" s="17">
         <v>674</v>
       </c>
     </row>
@@ -28127,7 +29566,7 @@
       <c r="C67" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D67" s="17">
         <v>540</v>
       </c>
     </row>
@@ -28137,7 +29576,7 @@
         <v>709</v>
       </c>
       <c r="C68" s="11"/>
-      <c r="D68" s="18">
+      <c r="D68" s="17">
         <v>540</v>
       </c>
     </row>
@@ -28149,7 +29588,7 @@
       <c r="C69" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D69" s="17">
         <v>895</v>
       </c>
     </row>
@@ -28159,7 +29598,7 @@
         <v>710</v>
       </c>
       <c r="C70" s="11"/>
-      <c r="D70" s="18">
+      <c r="D70" s="17">
         <v>895</v>
       </c>
     </row>
@@ -28171,7 +29610,7 @@
       <c r="C71" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D71" s="17">
         <v>307</v>
       </c>
     </row>
@@ -28181,7 +29620,7 @@
         <v>711</v>
       </c>
       <c r="C72" s="11"/>
-      <c r="D72" s="18">
+      <c r="D72" s="17">
         <v>307</v>
       </c>
     </row>
@@ -28193,7 +29632,7 @@
       <c r="C73" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D73" s="17">
         <v>650</v>
       </c>
     </row>
@@ -28203,7 +29642,7 @@
         <v>712</v>
       </c>
       <c r="C74" s="11"/>
-      <c r="D74" s="18">
+      <c r="D74" s="17">
         <v>650</v>
       </c>
     </row>
@@ -28215,7 +29654,7 @@
       <c r="C75" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D75" s="17">
         <v>421</v>
       </c>
     </row>
@@ -28225,7 +29664,7 @@
         <v>713</v>
       </c>
       <c r="C76" s="11"/>
-      <c r="D76" s="18">
+      <c r="D76" s="17">
         <v>421</v>
       </c>
     </row>
@@ -28237,7 +29676,7 @@
       <c r="C77" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D77" s="17">
         <v>311</v>
       </c>
     </row>
@@ -28247,7 +29686,7 @@
         <v>714</v>
       </c>
       <c r="C78" s="11"/>
-      <c r="D78" s="18">
+      <c r="D78" s="17">
         <v>311</v>
       </c>
     </row>
@@ -28259,7 +29698,7 @@
       <c r="C79" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D79" s="18">
+      <c r="D79" s="17">
         <v>212</v>
       </c>
     </row>
@@ -28269,7 +29708,7 @@
         <v>715</v>
       </c>
       <c r="C80" s="11"/>
-      <c r="D80" s="18">
+      <c r="D80" s="17">
         <v>212</v>
       </c>
     </row>
@@ -28281,7 +29720,7 @@
       <c r="C81" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="18">
+      <c r="D81" s="17">
         <v>585</v>
       </c>
     </row>
@@ -28291,7 +29730,7 @@
         <v>716</v>
       </c>
       <c r="C82" s="11"/>
-      <c r="D82" s="18">
+      <c r="D82" s="17">
         <v>585</v>
       </c>
     </row>
@@ -28303,7 +29742,7 @@
       <c r="C83" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="18">
+      <c r="D83" s="17">
         <v>1158</v>
       </c>
     </row>
@@ -28313,7 +29752,7 @@
         <v>717</v>
       </c>
       <c r="C84" s="11"/>
-      <c r="D84" s="18">
+      <c r="D84" s="17">
         <v>1158</v>
       </c>
     </row>
@@ -28325,7 +29764,7 @@
       <c r="C85" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D85" s="18">
+      <c r="D85" s="17">
         <v>441</v>
       </c>
     </row>
@@ -28335,7 +29774,7 @@
         <v>718</v>
       </c>
       <c r="C86" s="11"/>
-      <c r="D86" s="18">
+      <c r="D86" s="17">
         <v>441</v>
       </c>
     </row>
@@ -28347,7 +29786,7 @@
       <c r="C87" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D87" s="18">
+      <c r="D87" s="17">
         <v>402</v>
       </c>
     </row>
@@ -28357,7 +29796,7 @@
         <v>719</v>
       </c>
       <c r="C88" s="11"/>
-      <c r="D88" s="18">
+      <c r="D88" s="17">
         <v>402</v>
       </c>
     </row>
@@ -28369,7 +29808,7 @@
       <c r="C89" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="18">
+      <c r="D89" s="17">
         <v>637</v>
       </c>
     </row>
@@ -28379,7 +29818,7 @@
         <v>720</v>
       </c>
       <c r="C90" s="11"/>
-      <c r="D90" s="18">
+      <c r="D90" s="17">
         <v>637</v>
       </c>
     </row>
@@ -28391,7 +29830,7 @@
       <c r="C91" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D91" s="18">
+      <c r="D91" s="17">
         <v>358</v>
       </c>
     </row>
@@ -28401,7 +29840,7 @@
         <v>721</v>
       </c>
       <c r="C92" s="11"/>
-      <c r="D92" s="18">
+      <c r="D92" s="17">
         <v>358</v>
       </c>
     </row>
@@ -28413,7 +29852,7 @@
       <c r="C93" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="17">
         <v>599</v>
       </c>
     </row>
@@ -28423,7 +29862,7 @@
         <v>722</v>
       </c>
       <c r="C94" s="11"/>
-      <c r="D94" s="18">
+      <c r="D94" s="17">
         <v>599</v>
       </c>
     </row>
@@ -28435,7 +29874,7 @@
       <c r="C95" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="18">
+      <c r="D95" s="17">
         <v>602</v>
       </c>
     </row>
@@ -28445,7 +29884,7 @@
         <v>723</v>
       </c>
       <c r="C96" s="11"/>
-      <c r="D96" s="18">
+      <c r="D96" s="17">
         <v>602</v>
       </c>
     </row>
@@ -28457,7 +29896,7 @@
       <c r="C97" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D97" s="18">
+      <c r="D97" s="17">
         <v>349</v>
       </c>
     </row>
@@ -28467,7 +29906,7 @@
         <v>724</v>
       </c>
       <c r="C98" s="11"/>
-      <c r="D98" s="18">
+      <c r="D98" s="17">
         <v>349</v>
       </c>
     </row>
@@ -28479,7 +29918,7 @@
       <c r="C99" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="D99" s="18">
+      <c r="D99" s="17">
         <v>751</v>
       </c>
     </row>
@@ -28489,7 +29928,7 @@
         <v>725</v>
       </c>
       <c r="C100" s="11"/>
-      <c r="D100" s="18">
+      <c r="D100" s="17">
         <v>751</v>
       </c>
     </row>
@@ -28501,7 +29940,7 @@
       <c r="C101" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D101" s="18">
+      <c r="D101" s="17">
         <v>712</v>
       </c>
     </row>
@@ -28511,7 +29950,7 @@
         <v>726</v>
       </c>
       <c r="C102" s="11"/>
-      <c r="D102" s="18">
+      <c r="D102" s="17">
         <v>712</v>
       </c>
     </row>
@@ -28523,7 +29962,7 @@
       <c r="C103" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D103" s="18">
+      <c r="D103" s="17">
         <v>692</v>
       </c>
     </row>
@@ -28533,7 +29972,7 @@
         <v>727</v>
       </c>
       <c r="C104" s="11"/>
-      <c r="D104" s="18">
+      <c r="D104" s="17">
         <v>692</v>
       </c>
     </row>
@@ -28545,7 +29984,7 @@
       <c r="C105" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D105" s="18">
+      <c r="D105" s="17">
         <v>186</v>
       </c>
     </row>
@@ -28555,7 +29994,7 @@
         <v>728</v>
       </c>
       <c r="C106" s="11"/>
-      <c r="D106" s="18">
+      <c r="D106" s="17">
         <v>186</v>
       </c>
     </row>
@@ -28567,7 +30006,7 @@
       <c r="C107" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D107" s="18">
+      <c r="D107" s="17">
         <v>237</v>
       </c>
     </row>
@@ -28577,7 +30016,7 @@
         <v>729</v>
       </c>
       <c r="C108" s="11"/>
-      <c r="D108" s="18">
+      <c r="D108" s="17">
         <v>237</v>
       </c>
     </row>
@@ -28589,7 +30028,7 @@
       <c r="C109" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D109" s="18">
+      <c r="D109" s="17">
         <v>215</v>
       </c>
     </row>
@@ -28599,7 +30038,7 @@
         <v>730</v>
       </c>
       <c r="C110" s="11"/>
-      <c r="D110" s="18">
+      <c r="D110" s="17">
         <v>215</v>
       </c>
     </row>
@@ -28611,7 +30050,7 @@
       <c r="C111" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D111" s="18">
+      <c r="D111" s="17">
         <v>632</v>
       </c>
     </row>
@@ -28621,7 +30060,7 @@
         <v>731</v>
       </c>
       <c r="C112" s="11"/>
-      <c r="D112" s="18">
+      <c r="D112" s="17">
         <v>632</v>
       </c>
     </row>
@@ -28633,7 +30072,7 @@
       <c r="C113" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D113" s="18">
+      <c r="D113" s="17">
         <v>545</v>
       </c>
     </row>
@@ -28643,7 +30082,7 @@
         <v>732</v>
       </c>
       <c r="C114" s="11"/>
-      <c r="D114" s="18">
+      <c r="D114" s="17">
         <v>545</v>
       </c>
     </row>
@@ -28655,7 +30094,7 @@
       <c r="C115" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="18">
+      <c r="D115" s="17">
         <v>608</v>
       </c>
     </row>
@@ -28665,7 +30104,7 @@
         <v>733</v>
       </c>
       <c r="C116" s="11"/>
-      <c r="D116" s="18">
+      <c r="D116" s="17">
         <v>608</v>
       </c>
     </row>
@@ -28677,7 +30116,7 @@
       <c r="C117" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D117" s="18">
+      <c r="D117" s="17">
         <v>304</v>
       </c>
     </row>
@@ -28687,7 +30126,7 @@
         <v>734</v>
       </c>
       <c r="C118" s="11"/>
-      <c r="D118" s="18">
+      <c r="D118" s="17">
         <v>304</v>
       </c>
     </row>
@@ -28699,7 +30138,7 @@
       <c r="C119" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D119" s="18">
+      <c r="D119" s="17">
         <v>473</v>
       </c>
     </row>
@@ -28709,7 +30148,7 @@
         <v>735</v>
       </c>
       <c r="C120" s="11"/>
-      <c r="D120" s="18">
+      <c r="D120" s="17">
         <v>473</v>
       </c>
     </row>
@@ -28721,7 +30160,7 @@
       <c r="C121" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D121" s="18">
+      <c r="D121" s="17">
         <v>1124</v>
       </c>
     </row>
@@ -28731,7 +30170,7 @@
         <v>736</v>
       </c>
       <c r="C122" s="11"/>
-      <c r="D122" s="18">
+      <c r="D122" s="17">
         <v>1124</v>
       </c>
     </row>
@@ -28743,7 +30182,7 @@
       <c r="C123" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D123" s="18">
+      <c r="D123" s="17">
         <v>1057</v>
       </c>
     </row>
@@ -28753,7 +30192,7 @@
         <v>737</v>
       </c>
       <c r="C124" s="11"/>
-      <c r="D124" s="18">
+      <c r="D124" s="17">
         <v>1057</v>
       </c>
     </row>
@@ -28765,7 +30204,7 @@
       <c r="C125" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D125" s="18">
+      <c r="D125" s="17">
         <v>421</v>
       </c>
     </row>
@@ -28775,7 +30214,7 @@
         <v>738</v>
       </c>
       <c r="C126" s="11"/>
-      <c r="D126" s="18">
+      <c r="D126" s="17">
         <v>421</v>
       </c>
     </row>
@@ -28787,7 +30226,7 @@
       <c r="C127" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D127" s="18">
+      <c r="D127" s="17">
         <v>895</v>
       </c>
     </row>
@@ -28797,7 +30236,7 @@
         <v>739</v>
       </c>
       <c r="C128" s="11"/>
-      <c r="D128" s="18">
+      <c r="D128" s="17">
         <v>895</v>
       </c>
     </row>
@@ -28809,7 +30248,7 @@
       <c r="C129" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D129" s="18">
+      <c r="D129" s="17">
         <v>1305</v>
       </c>
     </row>
@@ -28819,7 +30258,7 @@
         <v>740</v>
       </c>
       <c r="C130" s="11"/>
-      <c r="D130" s="18">
+      <c r="D130" s="17">
         <v>1305</v>
       </c>
     </row>
@@ -28831,7 +30270,7 @@
       <c r="C131" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D131" s="18">
+      <c r="D131" s="17">
         <v>263</v>
       </c>
     </row>
@@ -28841,7 +30280,7 @@
         <v>741</v>
       </c>
       <c r="C132" s="11"/>
-      <c r="D132" s="18">
+      <c r="D132" s="17">
         <v>263</v>
       </c>
     </row>
@@ -28853,7 +30292,7 @@
       <c r="C133" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D133" s="18">
+      <c r="D133" s="17">
         <v>229</v>
       </c>
     </row>
@@ -28863,7 +30302,7 @@
         <v>742</v>
       </c>
       <c r="C134" s="11"/>
-      <c r="D134" s="18">
+      <c r="D134" s="17">
         <v>229</v>
       </c>
     </row>
@@ -28875,7 +30314,7 @@
       <c r="C135" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="18">
+      <c r="D135" s="17">
         <v>708</v>
       </c>
     </row>
@@ -28885,7 +30324,7 @@
         <v>743</v>
       </c>
       <c r="C136" s="11"/>
-      <c r="D136" s="18">
+      <c r="D136" s="17">
         <v>708</v>
       </c>
     </row>
@@ -28897,7 +30336,7 @@
       <c r="C137" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D137" s="18">
+      <c r="D137" s="17">
         <v>465</v>
       </c>
     </row>
@@ -28907,7 +30346,7 @@
         <v>744</v>
       </c>
       <c r="C138" s="11"/>
-      <c r="D138" s="18">
+      <c r="D138" s="17">
         <v>465</v>
       </c>
     </row>
@@ -28919,7 +30358,7 @@
       <c r="C139" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D139" s="18">
+      <c r="D139" s="17">
         <v>175</v>
       </c>
     </row>
@@ -28929,7 +30368,7 @@
         <v>745</v>
       </c>
       <c r="C140" s="11"/>
-      <c r="D140" s="18">
+      <c r="D140" s="17">
         <v>175</v>
       </c>
     </row>
@@ -28941,7 +30380,7 @@
       <c r="C141" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D141" s="17">
         <v>755</v>
       </c>
     </row>
@@ -28951,7 +30390,7 @@
         <v>746</v>
       </c>
       <c r="C142" s="11"/>
-      <c r="D142" s="18">
+      <c r="D142" s="17">
         <v>755</v>
       </c>
     </row>
@@ -28963,7 +30402,7 @@
       <c r="C143" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D143" s="18">
+      <c r="D143" s="17">
         <v>253</v>
       </c>
     </row>
@@ -28973,7 +30412,7 @@
         <v>747</v>
       </c>
       <c r="C144" s="11"/>
-      <c r="D144" s="18">
+      <c r="D144" s="17">
         <v>253</v>
       </c>
     </row>
@@ -28985,7 +30424,7 @@
       <c r="C145" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D145" s="18">
+      <c r="D145" s="17">
         <v>260</v>
       </c>
     </row>
@@ -28995,7 +30434,7 @@
         <v>748</v>
       </c>
       <c r="C146" s="11"/>
-      <c r="D146" s="18">
+      <c r="D146" s="17">
         <v>260</v>
       </c>
     </row>
@@ -29007,7 +30446,7 @@
       <c r="C147" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D147" s="18">
+      <c r="D147" s="17">
         <v>295</v>
       </c>
     </row>
@@ -29017,7 +30456,7 @@
         <v>749</v>
       </c>
       <c r="C148" s="11"/>
-      <c r="D148" s="18">
+      <c r="D148" s="17">
         <v>295</v>
       </c>
     </row>
@@ -29029,7 +30468,7 @@
       <c r="C149" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D149" s="18">
+      <c r="D149" s="17">
         <v>465</v>
       </c>
     </row>
@@ -29039,7 +30478,7 @@
         <v>750</v>
       </c>
       <c r="C150" s="11"/>
-      <c r="D150" s="18">
+      <c r="D150" s="17">
         <v>465</v>
       </c>
     </row>
@@ -29051,7 +30490,7 @@
       <c r="C151" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D151" s="18">
+      <c r="D151" s="17">
         <v>300</v>
       </c>
     </row>
@@ -29061,7 +30500,7 @@
         <v>751</v>
       </c>
       <c r="C152" s="11"/>
-      <c r="D152" s="18">
+      <c r="D152" s="17">
         <v>300</v>
       </c>
     </row>
@@ -29073,7 +30512,7 @@
       <c r="C153" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D153" s="18">
+      <c r="D153" s="17">
         <v>846</v>
       </c>
     </row>
@@ -29083,7 +30522,7 @@
         <v>752</v>
       </c>
       <c r="C154" s="11"/>
-      <c r="D154" s="18">
+      <c r="D154" s="17">
         <v>846</v>
       </c>
     </row>
@@ -29095,7 +30534,7 @@
       <c r="C155" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="17">
         <v>2046</v>
       </c>
     </row>
@@ -29105,7 +30544,7 @@
         <v>753</v>
       </c>
       <c r="C156" s="11"/>
-      <c r="D156" s="18">
+      <c r="D156" s="17">
         <v>2046</v>
       </c>
     </row>
@@ -29117,7 +30556,7 @@
       <c r="C157" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D157" s="18">
+      <c r="D157" s="17">
         <v>753</v>
       </c>
     </row>
@@ -29127,7 +30566,7 @@
         <v>754</v>
       </c>
       <c r="C158" s="11"/>
-      <c r="D158" s="18">
+      <c r="D158" s="17">
         <v>753</v>
       </c>
     </row>
@@ -29139,7 +30578,7 @@
       <c r="C159" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D159" s="18">
+      <c r="D159" s="17">
         <v>160</v>
       </c>
     </row>
@@ -29149,7 +30588,7 @@
         <v>755</v>
       </c>
       <c r="C160" s="11"/>
-      <c r="D160" s="18">
+      <c r="D160" s="17">
         <v>160</v>
       </c>
     </row>
@@ -29161,7 +30600,7 @@
       <c r="C161" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D161" s="18">
+      <c r="D161" s="17">
         <v>206</v>
       </c>
     </row>
@@ -29171,7 +30610,7 @@
         <v>756</v>
       </c>
       <c r="C162" s="11"/>
-      <c r="D162" s="18">
+      <c r="D162" s="17">
         <v>206</v>
       </c>
     </row>
@@ -29183,7 +30622,7 @@
       <c r="C163" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D163" s="18">
+      <c r="D163" s="17">
         <v>443</v>
       </c>
     </row>
@@ -29193,7 +30632,7 @@
         <v>757</v>
       </c>
       <c r="C164" s="11"/>
-      <c r="D164" s="18">
+      <c r="D164" s="17">
         <v>443</v>
       </c>
     </row>
@@ -29205,7 +30644,7 @@
       <c r="C165" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D165" s="18">
+      <c r="D165" s="17">
         <v>169</v>
       </c>
     </row>
@@ -29215,7 +30654,7 @@
         <v>758</v>
       </c>
       <c r="C166" s="11"/>
-      <c r="D166" s="18">
+      <c r="D166" s="17">
         <v>169</v>
       </c>
     </row>
@@ -29227,7 +30666,7 @@
       <c r="C167" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D167" s="18">
+      <c r="D167" s="17">
         <v>376</v>
       </c>
     </row>
@@ -29237,7 +30676,7 @@
         <v>759</v>
       </c>
       <c r="C168" s="11"/>
-      <c r="D168" s="18">
+      <c r="D168" s="17">
         <v>376</v>
       </c>
     </row>
@@ -29249,7 +30688,7 @@
       <c r="C169" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D169" s="18">
+      <c r="D169" s="17">
         <v>405</v>
       </c>
     </row>
@@ -29259,7 +30698,7 @@
         <v>760</v>
       </c>
       <c r="C170" s="11"/>
-      <c r="D170" s="18">
+      <c r="D170" s="17">
         <v>405</v>
       </c>
     </row>
@@ -29271,7 +30710,7 @@
       <c r="C171" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D171" s="18">
+      <c r="D171" s="17">
         <v>356</v>
       </c>
     </row>
@@ -29281,7 +30720,7 @@
         <v>761</v>
       </c>
       <c r="C172" s="11"/>
-      <c r="D172" s="18">
+      <c r="D172" s="17">
         <v>356</v>
       </c>
     </row>
@@ -29293,7 +30732,7 @@
       <c r="C173" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D173" s="18">
+      <c r="D173" s="17">
         <v>331</v>
       </c>
     </row>
@@ -29303,7 +30742,7 @@
         <v>762</v>
       </c>
       <c r="C174" s="11"/>
-      <c r="D174" s="18">
+      <c r="D174" s="17">
         <v>331</v>
       </c>
     </row>
@@ -29315,7 +30754,7 @@
       <c r="C175" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="18">
+      <c r="D175" s="17">
         <v>424</v>
       </c>
     </row>
@@ -29325,7 +30764,7 @@
         <v>763</v>
       </c>
       <c r="C176" s="11"/>
-      <c r="D176" s="18">
+      <c r="D176" s="17">
         <v>424</v>
       </c>
     </row>
@@ -29337,7 +30776,7 @@
       <c r="C177" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D177" s="18">
+      <c r="D177" s="17">
         <v>143</v>
       </c>
     </row>
@@ -29347,7 +30786,7 @@
         <v>764</v>
       </c>
       <c r="C178" s="11"/>
-      <c r="D178" s="18">
+      <c r="D178" s="17">
         <v>143</v>
       </c>
     </row>
@@ -29359,7 +30798,7 @@
       <c r="C179" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D179" s="18">
+      <c r="D179" s="17">
         <v>144</v>
       </c>
     </row>
@@ -29369,7 +30808,7 @@
         <v>765</v>
       </c>
       <c r="C180" s="11"/>
-      <c r="D180" s="18">
+      <c r="D180" s="17">
         <v>144</v>
       </c>
     </row>
@@ -29381,7 +30820,7 @@
       <c r="C181" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D181" s="18">
+      <c r="D181" s="17">
         <v>561</v>
       </c>
     </row>
@@ -29391,7 +30830,7 @@
         <v>766</v>
       </c>
       <c r="C182" s="11"/>
-      <c r="D182" s="18">
+      <c r="D182" s="17">
         <v>561</v>
       </c>
     </row>
@@ -29403,7 +30842,7 @@
       <c r="C183" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D183" s="18">
+      <c r="D183" s="17">
         <v>430</v>
       </c>
     </row>
@@ -29413,7 +30852,7 @@
         <v>767</v>
       </c>
       <c r="C184" s="11"/>
-      <c r="D184" s="18">
+      <c r="D184" s="17">
         <v>430</v>
       </c>
     </row>
@@ -29425,7 +30864,7 @@
       <c r="C185" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D185" s="18">
+      <c r="D185" s="17">
         <v>716</v>
       </c>
     </row>
@@ -29435,7 +30874,7 @@
         <v>768</v>
       </c>
       <c r="C186" s="11"/>
-      <c r="D186" s="18">
+      <c r="D186" s="17">
         <v>716</v>
       </c>
     </row>
@@ -29447,7 +30886,7 @@
       <c r="C187" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D187" s="18">
+      <c r="D187" s="17">
         <v>784</v>
       </c>
     </row>
@@ -29457,7 +30896,7 @@
         <v>769</v>
       </c>
       <c r="C188" s="11"/>
-      <c r="D188" s="18">
+      <c r="D188" s="17">
         <v>784</v>
       </c>
     </row>
@@ -29469,7 +30908,7 @@
       <c r="C189" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D189" s="18">
+      <c r="D189" s="17">
         <v>421</v>
       </c>
     </row>
@@ -29479,7 +30918,7 @@
         <v>770</v>
       </c>
       <c r="C190" s="11"/>
-      <c r="D190" s="18">
+      <c r="D190" s="17">
         <v>421</v>
       </c>
     </row>
@@ -29491,7 +30930,7 @@
       <c r="C191" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D191" s="18">
+      <c r="D191" s="17">
         <v>293</v>
       </c>
     </row>
@@ -29501,7 +30940,7 @@
         <v>771</v>
       </c>
       <c r="C192" s="11"/>
-      <c r="D192" s="18">
+      <c r="D192" s="17">
         <v>293</v>
       </c>
     </row>
@@ -29513,7 +30952,7 @@
       <c r="C193" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D193" s="18">
+      <c r="D193" s="17">
         <v>565</v>
       </c>
     </row>
@@ -29523,7 +30962,7 @@
         <v>772</v>
       </c>
       <c r="C194" s="11"/>
-      <c r="D194" s="18">
+      <c r="D194" s="17">
         <v>565</v>
       </c>
     </row>
@@ -29535,7 +30974,7 @@
       <c r="C195" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D195" s="18">
+      <c r="D195" s="17">
         <v>733</v>
       </c>
     </row>
@@ -29545,7 +30984,7 @@
         <v>773</v>
       </c>
       <c r="C196" s="11"/>
-      <c r="D196" s="18">
+      <c r="D196" s="17">
         <v>733</v>
       </c>
     </row>
@@ -29557,7 +30996,7 @@
       <c r="C197" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D197" s="18">
+      <c r="D197" s="17">
         <v>494</v>
       </c>
     </row>
@@ -29567,7 +31006,7 @@
         <v>774</v>
       </c>
       <c r="C198" s="11"/>
-      <c r="D198" s="18">
+      <c r="D198" s="17">
         <v>494</v>
       </c>
     </row>
@@ -29579,7 +31018,7 @@
       <c r="C199" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D199" s="18">
+      <c r="D199" s="17">
         <v>1264</v>
       </c>
     </row>
@@ -29589,7 +31028,7 @@
         <v>775</v>
       </c>
       <c r="C200" s="11"/>
-      <c r="D200" s="18">
+      <c r="D200" s="17">
         <v>1264</v>
       </c>
     </row>
@@ -29601,7 +31040,7 @@
       <c r="C201" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D201" s="18">
+      <c r="D201" s="17">
         <v>772</v>
       </c>
     </row>
@@ -29611,7 +31050,7 @@
         <v>776</v>
       </c>
       <c r="C202" s="11"/>
-      <c r="D202" s="18">
+      <c r="D202" s="17">
         <v>772</v>
       </c>
     </row>
@@ -29623,7 +31062,7 @@
       <c r="C203" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D203" s="18">
+      <c r="D203" s="17">
         <v>277</v>
       </c>
     </row>
@@ -29633,7 +31072,7 @@
         <v>777</v>
       </c>
       <c r="C204" s="11"/>
-      <c r="D204" s="18">
+      <c r="D204" s="17">
         <v>277</v>
       </c>
     </row>
@@ -29645,7 +31084,7 @@
       <c r="C205" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D205" s="18">
+      <c r="D205" s="17">
         <v>2205</v>
       </c>
     </row>
@@ -29655,7 +31094,7 @@
         <v>778</v>
       </c>
       <c r="C206" s="11"/>
-      <c r="D206" s="18">
+      <c r="D206" s="17">
         <v>2205</v>
       </c>
     </row>
@@ -29667,7 +31106,7 @@
       <c r="C207" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D207" s="18">
+      <c r="D207" s="17">
         <v>814</v>
       </c>
     </row>
@@ -29677,7 +31116,7 @@
         <v>779</v>
       </c>
       <c r="C208" s="11"/>
-      <c r="D208" s="18">
+      <c r="D208" s="17">
         <v>814</v>
       </c>
     </row>
@@ -29689,7 +31128,7 @@
       <c r="C209" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D209" s="18">
+      <c r="D209" s="17">
         <v>685</v>
       </c>
     </row>
@@ -29699,7 +31138,7 @@
         <v>780</v>
       </c>
       <c r="C210" s="11"/>
-      <c r="D210" s="18">
+      <c r="D210" s="17">
         <v>685</v>
       </c>
     </row>
@@ -29711,7 +31150,7 @@
       <c r="C211" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D211" s="18">
+      <c r="D211" s="17">
         <v>296</v>
       </c>
     </row>
@@ -29721,7 +31160,7 @@
         <v>781</v>
       </c>
       <c r="C212" s="11"/>
-      <c r="D212" s="18">
+      <c r="D212" s="17">
         <v>296</v>
       </c>
     </row>
@@ -29733,7 +31172,7 @@
       <c r="C213" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D213" s="18">
+      <c r="D213" s="17">
         <v>171</v>
       </c>
     </row>
@@ -29743,7 +31182,7 @@
         <v>782</v>
       </c>
       <c r="C214" s="11"/>
-      <c r="D214" s="18">
+      <c r="D214" s="17">
         <v>171</v>
       </c>
     </row>
@@ -29755,7 +31194,7 @@
       <c r="C215" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D215" s="18">
+      <c r="D215" s="17">
         <v>295</v>
       </c>
     </row>
@@ -29765,7 +31204,7 @@
         <v>783</v>
       </c>
       <c r="C216" s="11"/>
-      <c r="D216" s="18">
+      <c r="D216" s="17">
         <v>295</v>
       </c>
     </row>
@@ -29777,7 +31216,7 @@
       <c r="C217" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D217" s="18">
+      <c r="D217" s="17">
         <v>732</v>
       </c>
     </row>
@@ -29787,7 +31226,7 @@
         <v>784</v>
       </c>
       <c r="C218" s="11"/>
-      <c r="D218" s="18">
+      <c r="D218" s="17">
         <v>732</v>
       </c>
     </row>
@@ -29799,7 +31238,7 @@
       <c r="C219" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D219" s="18">
+      <c r="D219" s="17">
         <v>49</v>
       </c>
     </row>
@@ -29809,7 +31248,7 @@
         <v>785</v>
       </c>
       <c r="C220" s="11"/>
-      <c r="D220" s="18">
+      <c r="D220" s="17">
         <v>49</v>
       </c>
     </row>
@@ -29821,7 +31260,7 @@
       <c r="C221" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D221" s="18">
+      <c r="D221" s="17">
         <v>299</v>
       </c>
     </row>
@@ -29831,7 +31270,7 @@
         <v>786</v>
       </c>
       <c r="C222" s="11"/>
-      <c r="D222" s="18">
+      <c r="D222" s="17">
         <v>299</v>
       </c>
     </row>
@@ -29843,7 +31282,7 @@
       <c r="C223" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D223" s="18">
+      <c r="D223" s="17">
         <v>216</v>
       </c>
     </row>
@@ -29853,7 +31292,7 @@
         <v>787</v>
       </c>
       <c r="C224" s="11"/>
-      <c r="D224" s="18">
+      <c r="D224" s="17">
         <v>216</v>
       </c>
     </row>
@@ -29865,7 +31304,7 @@
       <c r="C225" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D225" s="18">
+      <c r="D225" s="17">
         <v>143</v>
       </c>
     </row>
@@ -29875,7 +31314,7 @@
         <v>788</v>
       </c>
       <c r="C226" s="11"/>
-      <c r="D226" s="18">
+      <c r="D226" s="17">
         <v>143</v>
       </c>
     </row>
@@ -29887,7 +31326,7 @@
       <c r="C227" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D227" s="18">
+      <c r="D227" s="17">
         <v>441</v>
       </c>
     </row>
@@ -29897,7 +31336,7 @@
         <v>789</v>
       </c>
       <c r="C228" s="11"/>
-      <c r="D228" s="18">
+      <c r="D228" s="17">
         <v>441</v>
       </c>
     </row>
@@ -29909,7 +31348,7 @@
       <c r="C229" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D229" s="18">
+      <c r="D229" s="17">
         <v>289</v>
       </c>
     </row>
@@ -29919,7 +31358,7 @@
         <v>790</v>
       </c>
       <c r="C230" s="11"/>
-      <c r="D230" s="18">
+      <c r="D230" s="17">
         <v>289</v>
       </c>
     </row>
@@ -29931,7 +31370,7 @@
       <c r="C231" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D231" s="18">
+      <c r="D231" s="17">
         <v>557</v>
       </c>
     </row>
@@ -29941,7 +31380,7 @@
         <v>791</v>
       </c>
       <c r="C232" s="11"/>
-      <c r="D232" s="18">
+      <c r="D232" s="17">
         <v>557</v>
       </c>
     </row>
@@ -29953,7 +31392,7 @@
       <c r="C233" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D233" s="18">
+      <c r="D233" s="17">
         <v>503</v>
       </c>
     </row>
@@ -29963,7 +31402,7 @@
         <v>792</v>
       </c>
       <c r="C234" s="11"/>
-      <c r="D234" s="18">
+      <c r="D234" s="17">
         <v>503</v>
       </c>
     </row>
@@ -29975,7 +31414,7 @@
       <c r="C235" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D235" s="18">
+      <c r="D235" s="17">
         <v>297</v>
       </c>
     </row>
@@ -29985,7 +31424,7 @@
         <v>793</v>
       </c>
       <c r="C236" s="11"/>
-      <c r="D236" s="18">
+      <c r="D236" s="17">
         <v>297</v>
       </c>
     </row>
@@ -29997,7 +31436,7 @@
       <c r="C237" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D237" s="18">
+      <c r="D237" s="17">
         <v>623</v>
       </c>
     </row>
@@ -30007,7 +31446,7 @@
         <v>794</v>
       </c>
       <c r="C238" s="11"/>
-      <c r="D238" s="18">
+      <c r="D238" s="17">
         <v>623</v>
       </c>
     </row>
@@ -30019,7 +31458,7 @@
       <c r="C239" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D239" s="18">
+      <c r="D239" s="17">
         <v>362</v>
       </c>
     </row>
@@ -30029,7 +31468,7 @@
         <v>795</v>
       </c>
       <c r="C240" s="11"/>
-      <c r="D240" s="18">
+      <c r="D240" s="17">
         <v>362</v>
       </c>
     </row>
@@ -30041,7 +31480,7 @@
       <c r="C241" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D241" s="18">
+      <c r="D241" s="17">
         <v>616</v>
       </c>
     </row>
@@ -30051,7 +31490,7 @@
         <v>796</v>
       </c>
       <c r="C242" s="11"/>
-      <c r="D242" s="18">
+      <c r="D242" s="17">
         <v>616</v>
       </c>
     </row>
@@ -30063,7 +31502,7 @@
       <c r="C243" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D243" s="18">
+      <c r="D243" s="17">
         <v>362</v>
       </c>
     </row>
@@ -30073,7 +31512,7 @@
         <v>797</v>
       </c>
       <c r="C244" s="11"/>
-      <c r="D244" s="18">
+      <c r="D244" s="17">
         <v>362</v>
       </c>
     </row>
@@ -30085,7 +31524,7 @@
       <c r="C245" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D245" s="18">
+      <c r="D245" s="17">
         <v>592</v>
       </c>
     </row>
@@ -30095,7 +31534,7 @@
         <v>798</v>
       </c>
       <c r="C246" s="11"/>
-      <c r="D246" s="18">
+      <c r="D246" s="17">
         <v>592</v>
       </c>
     </row>
@@ -30107,7 +31546,7 @@
       <c r="C247" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D247" s="18">
+      <c r="D247" s="17">
         <v>295</v>
       </c>
     </row>
@@ -30117,7 +31556,7 @@
         <v>799</v>
       </c>
       <c r="C248" s="11"/>
-      <c r="D248" s="18">
+      <c r="D248" s="17">
         <v>295</v>
       </c>
     </row>
@@ -30129,7 +31568,7 @@
       <c r="C249" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D249" s="18">
+      <c r="D249" s="17">
         <v>505</v>
       </c>
     </row>
@@ -30139,7 +31578,7 @@
         <v>800</v>
       </c>
       <c r="C250" s="11"/>
-      <c r="D250" s="18">
+      <c r="D250" s="17">
         <v>505</v>
       </c>
     </row>
@@ -30151,7 +31590,7 @@
       <c r="C251" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="D251" s="18">
+      <c r="D251" s="17">
         <v>366</v>
       </c>
     </row>
@@ -30161,7 +31600,7 @@
         <v>801</v>
       </c>
       <c r="C252" s="11"/>
-      <c r="D252" s="18">
+      <c r="D252" s="17">
         <v>366</v>
       </c>
     </row>
@@ -30173,7 +31612,7 @@
       <c r="C253" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D253" s="18">
+      <c r="D253" s="17">
         <v>617</v>
       </c>
     </row>
@@ -30183,7 +31622,7 @@
         <v>802</v>
       </c>
       <c r="C254" s="11"/>
-      <c r="D254" s="18">
+      <c r="D254" s="17">
         <v>617</v>
       </c>
     </row>
@@ -30195,7 +31634,7 @@
       <c r="C255" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D255" s="18">
+      <c r="D255" s="17">
         <v>288</v>
       </c>
     </row>
@@ -30205,7 +31644,7 @@
         <v>803</v>
       </c>
       <c r="C256" s="11"/>
-      <c r="D256" s="18">
+      <c r="D256" s="17">
         <v>288</v>
       </c>
     </row>
@@ -30217,7 +31656,7 @@
       <c r="C257" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D257" s="18">
+      <c r="D257" s="17">
         <v>233</v>
       </c>
     </row>
@@ -30227,7 +31666,7 @@
         <v>804</v>
       </c>
       <c r="C258" s="11"/>
-      <c r="D258" s="18">
+      <c r="D258" s="17">
         <v>233</v>
       </c>
     </row>
@@ -30239,7 +31678,7 @@
       <c r="C259" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D259" s="18">
+      <c r="D259" s="17">
         <v>22</v>
       </c>
     </row>
@@ -30249,7 +31688,7 @@
         <v>805</v>
       </c>
       <c r="C260" s="11"/>
-      <c r="D260" s="18">
+      <c r="D260" s="17">
         <v>22</v>
       </c>
     </row>
@@ -30261,7 +31700,7 @@
       <c r="C261" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D261" s="18">
+      <c r="D261" s="17">
         <v>474</v>
       </c>
     </row>
@@ -30271,7 +31710,7 @@
         <v>806</v>
       </c>
       <c r="C262" s="11"/>
-      <c r="D262" s="18">
+      <c r="D262" s="17">
         <v>474</v>
       </c>
     </row>
@@ -30283,7 +31722,7 @@
       <c r="C263" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D263" s="18">
+      <c r="D263" s="17">
         <v>550</v>
       </c>
     </row>
@@ -30293,7 +31732,7 @@
         <v>807</v>
       </c>
       <c r="C264" s="11"/>
-      <c r="D264" s="18">
+      <c r="D264" s="17">
         <v>550</v>
       </c>
     </row>
@@ -30305,7 +31744,7 @@
       <c r="C265" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D265" s="18">
+      <c r="D265" s="17">
         <v>438</v>
       </c>
     </row>
@@ -30315,7 +31754,7 @@
         <v>808</v>
       </c>
       <c r="C266" s="11"/>
-      <c r="D266" s="18">
+      <c r="D266" s="17">
         <v>438</v>
       </c>
     </row>
@@ -30327,7 +31766,7 @@
       <c r="C267" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D267" s="18">
+      <c r="D267" s="17">
         <v>301</v>
       </c>
     </row>
@@ -30337,7 +31776,7 @@
         <v>809</v>
       </c>
       <c r="C268" s="11"/>
-      <c r="D268" s="18">
+      <c r="D268" s="17">
         <v>301</v>
       </c>
     </row>
@@ -30349,7 +31788,7 @@
       <c r="C269" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D269" s="18">
+      <c r="D269" s="17">
         <v>247</v>
       </c>
     </row>
@@ -30359,7 +31798,7 @@
         <v>810</v>
       </c>
       <c r="C270" s="11"/>
-      <c r="D270" s="18">
+      <c r="D270" s="17">
         <v>247</v>
       </c>
     </row>
@@ -30371,7 +31810,7 @@
       <c r="C271" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D271" s="18">
+      <c r="D271" s="17">
         <v>472</v>
       </c>
     </row>
@@ -30381,7 +31820,7 @@
         <v>811</v>
       </c>
       <c r="C272" s="11"/>
-      <c r="D272" s="18">
+      <c r="D272" s="17">
         <v>472</v>
       </c>
     </row>
@@ -30393,7 +31832,7 @@
       <c r="C273" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D273" s="18">
+      <c r="D273" s="17">
         <v>340</v>
       </c>
     </row>
@@ -30403,7 +31842,7 @@
         <v>812</v>
       </c>
       <c r="C274" s="11"/>
-      <c r="D274" s="18">
+      <c r="D274" s="17">
         <v>340</v>
       </c>
     </row>
@@ -30415,7 +31854,7 @@
       <c r="C275" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D275" s="18">
+      <c r="D275" s="17">
         <v>660</v>
       </c>
     </row>
@@ -30425,7 +31864,7 @@
         <v>813</v>
       </c>
       <c r="C276" s="11"/>
-      <c r="D276" s="18">
+      <c r="D276" s="17">
         <v>660</v>
       </c>
     </row>
@@ -30437,7 +31876,7 @@
       <c r="C277" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D277" s="18">
+      <c r="D277" s="17">
         <v>208</v>
       </c>
     </row>
@@ -30447,7 +31886,7 @@
         <v>814</v>
       </c>
       <c r="C278" s="11"/>
-      <c r="D278" s="18">
+      <c r="D278" s="17">
         <v>208</v>
       </c>
     </row>
@@ -30459,7 +31898,7 @@
       <c r="C279" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D279" s="18">
+      <c r="D279" s="17">
         <v>403</v>
       </c>
     </row>
@@ -30469,7 +31908,7 @@
         <v>815</v>
       </c>
       <c r="C280" s="11"/>
-      <c r="D280" s="18">
+      <c r="D280" s="17">
         <v>403</v>
       </c>
     </row>
@@ -30481,7 +31920,7 @@
       <c r="C281" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D281" s="18">
+      <c r="D281" s="17">
         <v>509</v>
       </c>
     </row>
@@ -30491,7 +31930,7 @@
         <v>816</v>
       </c>
       <c r="C282" s="11"/>
-      <c r="D282" s="18">
+      <c r="D282" s="17">
         <v>509</v>
       </c>
     </row>
@@ -30503,7 +31942,7 @@
       <c r="C283" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D283" s="18">
+      <c r="D283" s="17">
         <v>489</v>
       </c>
     </row>
@@ -30513,7 +31952,7 @@
         <v>817</v>
       </c>
       <c r="C284" s="11"/>
-      <c r="D284" s="18">
+      <c r="D284" s="17">
         <v>489</v>
       </c>
     </row>
@@ -30525,7 +31964,7 @@
       <c r="C285" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D285" s="18">
+      <c r="D285" s="17">
         <v>965</v>
       </c>
     </row>
@@ -30535,7 +31974,7 @@
         <v>818</v>
       </c>
       <c r="C286" s="11"/>
-      <c r="D286" s="18">
+      <c r="D286" s="17">
         <v>965</v>
       </c>
     </row>
@@ -30547,7 +31986,7 @@
       <c r="C287" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D287" s="18">
+      <c r="D287" s="17">
         <v>495</v>
       </c>
     </row>
@@ -30557,7 +31996,7 @@
         <v>819</v>
       </c>
       <c r="C288" s="11"/>
-      <c r="D288" s="18">
+      <c r="D288" s="17">
         <v>495</v>
       </c>
     </row>
@@ -30569,7 +32008,7 @@
       <c r="C289" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D289" s="18">
+      <c r="D289" s="17">
         <v>376</v>
       </c>
     </row>
@@ -30579,7 +32018,7 @@
         <v>820</v>
       </c>
       <c r="C290" s="11"/>
-      <c r="D290" s="18">
+      <c r="D290" s="17">
         <v>376</v>
       </c>
     </row>
@@ -30591,7 +32030,7 @@
       <c r="C291" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D291" s="18">
+      <c r="D291" s="17">
         <v>424</v>
       </c>
     </row>
@@ -30601,7 +32040,7 @@
         <v>821</v>
       </c>
       <c r="C292" s="11"/>
-      <c r="D292" s="18">
+      <c r="D292" s="17">
         <v>424</v>
       </c>
     </row>
@@ -30613,7 +32052,7 @@
       <c r="C293" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D293" s="18">
+      <c r="D293" s="17">
         <v>93</v>
       </c>
     </row>
@@ -30623,7 +32062,7 @@
         <v>822</v>
       </c>
       <c r="C294" s="11"/>
-      <c r="D294" s="18">
+      <c r="D294" s="17">
         <v>93</v>
       </c>
     </row>
@@ -30635,7 +32074,7 @@
       <c r="C295" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D295" s="18">
+      <c r="D295" s="17">
         <v>89</v>
       </c>
     </row>
@@ -30645,7 +32084,7 @@
         <v>823</v>
       </c>
       <c r="C296" s="11"/>
-      <c r="D296" s="18">
+      <c r="D296" s="17">
         <v>89</v>
       </c>
     </row>
@@ -30657,7 +32096,7 @@
       <c r="C297" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D297" s="18">
+      <c r="D297" s="17">
         <v>61</v>
       </c>
     </row>
@@ -30667,7 +32106,7 @@
         <v>824</v>
       </c>
       <c r="C298" s="11"/>
-      <c r="D298" s="18">
+      <c r="D298" s="17">
         <v>61</v>
       </c>
     </row>
@@ -30679,7 +32118,7 @@
       <c r="C299" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D299" s="18">
+      <c r="D299" s="17">
         <v>58</v>
       </c>
     </row>
@@ -30689,7 +32128,7 @@
         <v>825</v>
       </c>
       <c r="C300" s="11"/>
-      <c r="D300" s="18">
+      <c r="D300" s="17">
         <v>58</v>
       </c>
     </row>
@@ -30701,7 +32140,7 @@
       <c r="C301" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D301" s="18">
+      <c r="D301" s="17">
         <v>805</v>
       </c>
     </row>
@@ -30711,7 +32150,7 @@
         <v>826</v>
       </c>
       <c r="C302" s="11"/>
-      <c r="D302" s="18">
+      <c r="D302" s="17">
         <v>805</v>
       </c>
     </row>
@@ -30723,7 +32162,7 @@
       <c r="C303" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D303" s="18">
+      <c r="D303" s="17">
         <v>958</v>
       </c>
     </row>
@@ -30733,7 +32172,7 @@
         <v>827</v>
       </c>
       <c r="C304" s="11"/>
-      <c r="D304" s="18">
+      <c r="D304" s="17">
         <v>958</v>
       </c>
     </row>
@@ -30745,7 +32184,7 @@
       <c r="C305" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D305" s="18">
+      <c r="D305" s="17">
         <v>365</v>
       </c>
     </row>
@@ -30755,7 +32194,7 @@
         <v>828</v>
       </c>
       <c r="C306" s="11"/>
-      <c r="D306" s="18">
+      <c r="D306" s="17">
         <v>365</v>
       </c>
     </row>
@@ -30767,7 +32206,7 @@
       <c r="C307" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D307" s="18">
+      <c r="D307" s="17">
         <v>7</v>
       </c>
     </row>
@@ -30777,7 +32216,7 @@
         <v>829</v>
       </c>
       <c r="C308" s="11"/>
-      <c r="D308" s="18">
+      <c r="D308" s="17">
         <v>7</v>
       </c>
     </row>
@@ -30789,7 +32228,7 @@
       <c r="C309" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D309" s="18">
+      <c r="D309" s="17">
         <v>543</v>
       </c>
     </row>
@@ -30799,7 +32238,7 @@
         <v>830</v>
       </c>
       <c r="C310" s="11"/>
-      <c r="D310" s="18">
+      <c r="D310" s="17">
         <v>543</v>
       </c>
     </row>
@@ -30811,7 +32250,7 @@
       <c r="C311" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D311" s="18">
+      <c r="D311" s="17">
         <v>762</v>
       </c>
     </row>
@@ -30821,7 +32260,7 @@
         <v>831</v>
       </c>
       <c r="C312" s="11"/>
-      <c r="D312" s="18">
+      <c r="D312" s="17">
         <v>762</v>
       </c>
     </row>
@@ -30833,7 +32272,7 @@
       <c r="C313" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D313" s="18">
+      <c r="D313" s="17">
         <v>403</v>
       </c>
     </row>
@@ -30843,7 +32282,7 @@
         <v>832</v>
       </c>
       <c r="C314" s="11"/>
-      <c r="D314" s="18">
+      <c r="D314" s="17">
         <v>403</v>
       </c>
     </row>
@@ -30855,7 +32294,7 @@
       <c r="C315" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D315" s="18">
+      <c r="D315" s="17">
         <v>748</v>
       </c>
     </row>
@@ -30865,7 +32304,7 @@
         <v>833</v>
       </c>
       <c r="C316" s="11"/>
-      <c r="D316" s="18">
+      <c r="D316" s="17">
         <v>748</v>
       </c>
     </row>
@@ -30877,7 +32316,7 @@
       <c r="C317" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D317" s="18">
+      <c r="D317" s="17">
         <v>937</v>
       </c>
     </row>
@@ -30887,7 +32326,7 @@
         <v>834</v>
       </c>
       <c r="C318" s="11"/>
-      <c r="D318" s="18">
+      <c r="D318" s="17">
         <v>937</v>
       </c>
     </row>
@@ -30899,7 +32338,7 @@
       <c r="C319" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D319" s="18">
+      <c r="D319" s="17">
         <v>494</v>
       </c>
     </row>
@@ -30909,7 +32348,7 @@
         <v>835</v>
       </c>
       <c r="C320" s="11"/>
-      <c r="D320" s="18">
+      <c r="D320" s="17">
         <v>494</v>
       </c>
     </row>
@@ -30921,7 +32360,7 @@
       <c r="C321" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D321" s="18">
+      <c r="D321" s="17">
         <v>274</v>
       </c>
     </row>
@@ -30931,7 +32370,7 @@
         <v>836</v>
       </c>
       <c r="C322" s="11"/>
-      <c r="D322" s="18">
+      <c r="D322" s="17">
         <v>274</v>
       </c>
     </row>
@@ -30943,7 +32382,7 @@
       <c r="C323" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D323" s="18">
+      <c r="D323" s="17">
         <v>94</v>
       </c>
     </row>
@@ -30953,7 +32392,7 @@
         <v>837</v>
       </c>
       <c r="C324" s="11"/>
-      <c r="D324" s="18">
+      <c r="D324" s="17">
         <v>94</v>
       </c>
     </row>
@@ -30965,7 +32404,7 @@
       <c r="C325" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D325" s="18">
+      <c r="D325" s="17">
         <v>213</v>
       </c>
     </row>
@@ -30975,7 +32414,7 @@
         <v>838</v>
       </c>
       <c r="C326" s="11"/>
-      <c r="D326" s="18">
+      <c r="D326" s="17">
         <v>213</v>
       </c>
     </row>
@@ -30987,7 +32426,7 @@
       <c r="C327" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D327" s="18">
+      <c r="D327" s="17">
         <v>499</v>
       </c>
     </row>
@@ -30997,7 +32436,7 @@
         <v>839</v>
       </c>
       <c r="C328" s="11"/>
-      <c r="D328" s="18">
+      <c r="D328" s="17">
         <v>499</v>
       </c>
     </row>
@@ -31009,7 +32448,7 @@
       <c r="C329" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D329" s="18">
+      <c r="D329" s="17">
         <v>491</v>
       </c>
     </row>
@@ -31019,7 +32458,7 @@
         <v>840</v>
       </c>
       <c r="C330" s="11"/>
-      <c r="D330" s="18">
+      <c r="D330" s="17">
         <v>491</v>
       </c>
     </row>
@@ -31031,7 +32470,7 @@
       <c r="C331" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D331" s="18">
+      <c r="D331" s="17">
         <v>415</v>
       </c>
     </row>
@@ -31041,7 +32480,7 @@
         <v>841</v>
       </c>
       <c r="C332" s="11"/>
-      <c r="D332" s="18">
+      <c r="D332" s="17">
         <v>415</v>
       </c>
     </row>
@@ -31053,7 +32492,7 @@
       <c r="C333" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D333" s="18">
+      <c r="D333" s="17">
         <v>520</v>
       </c>
     </row>
@@ -31063,7 +32502,7 @@
         <v>842</v>
       </c>
       <c r="C334" s="11"/>
-      <c r="D334" s="18">
+      <c r="D334" s="17">
         <v>520</v>
       </c>
     </row>
@@ -31075,7 +32514,7 @@
       <c r="C335" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D335" s="18">
+      <c r="D335" s="17">
         <v>993</v>
       </c>
     </row>
@@ -31085,7 +32524,7 @@
         <v>843</v>
       </c>
       <c r="C336" s="11"/>
-      <c r="D336" s="18">
+      <c r="D336" s="17">
         <v>993</v>
       </c>
     </row>
@@ -31097,7 +32536,7 @@
       <c r="C337" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D337" s="18">
+      <c r="D337" s="17">
         <v>822</v>
       </c>
     </row>
@@ -31107,7 +32546,7 @@
         <v>844</v>
       </c>
       <c r="C338" s="11"/>
-      <c r="D338" s="18">
+      <c r="D338" s="17">
         <v>822</v>
       </c>
     </row>
@@ -31117,7 +32556,7 @@
       </c>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
-      <c r="D339" s="18">
+      <c r="D339" s="17">
         <v>85561</v>
       </c>
     </row>
@@ -31127,7 +32566,7 @@
       </c>
       <c r="B340" s="16"/>
       <c r="C340" s="16"/>
-      <c r="D340" s="19">
+      <c r="D340" s="18">
         <v>85561</v>
       </c>
     </row>
@@ -31136,12 +32575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF132480-8304-43AF-9DC7-F5E5E335F99C}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31168,207 +32607,207 @@
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>15027</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B4" s="20">
-        <v>751</v>
+        <v>157</v>
+      </c>
+      <c r="B4" s="19">
+        <v>10826</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1319</v>
+        <v>118</v>
+      </c>
+      <c r="B5" s="19">
+        <v>6214</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2290</v>
+        <v>214</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B7" s="20">
-        <v>555</v>
+        <v>205</v>
+      </c>
+      <c r="B7" s="19">
+        <v>4618</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="20">
-        <v>3059</v>
+        <v>182</v>
+      </c>
+      <c r="B8" s="19">
+        <v>4287</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="20">
-        <v>1450</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3935</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="20">
-        <v>761</v>
+        <v>375</v>
+      </c>
+      <c r="B10" s="19">
+        <v>3738</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <v>3715</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B12" s="20">
-        <v>1693</v>
+        <v>72</v>
+      </c>
+      <c r="B12" s="19">
+        <v>3059</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2675</v>
+        <v>269</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2898</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="20">
-        <v>4287</v>
+        <v>295</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2675</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="20">
-        <v>6214</v>
+        <v>194</v>
+      </c>
+      <c r="B15" s="19">
+        <v>2534</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="20">
+      <c r="B16" s="19">
         <v>2443</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="20">
-        <v>3935</v>
+        <v>210</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2290</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="20">
-        <v>3738</v>
+        <v>328</v>
+      </c>
+      <c r="B18" s="19">
+        <v>2072</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="20">
-        <v>10826</v>
+        <v>265</v>
+      </c>
+      <c r="B19" s="19">
+        <v>1693</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="20">
-        <v>726</v>
+        <v>81</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1450</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B21" s="20">
-        <v>5256</v>
+        <v>278</v>
+      </c>
+      <c r="B21" s="19">
+        <v>1319</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B22" s="20">
-        <v>2072</v>
+        <v>114</v>
+      </c>
+      <c r="B22" s="19">
+        <v>1314</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B23" s="20">
-        <v>4618</v>
+        <v>188</v>
+      </c>
+      <c r="B23" s="19">
+        <v>1039</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B24" s="20">
-        <v>2898</v>
+        <v>58</v>
+      </c>
+      <c r="B24" s="19">
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" s="20">
-        <v>1039</v>
+        <v>291</v>
+      </c>
+      <c r="B25" s="19">
+        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B26" s="20">
-        <v>2534</v>
+        <v>232</v>
+      </c>
+      <c r="B26" s="19">
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="20">
-        <v>1314</v>
+        <v>368</v>
+      </c>
+      <c r="B27" s="19">
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>534</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>366</v>
       </c>
     </row>
@@ -31376,13 +32815,13 @@
       <c r="A29" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>85561</v>
       </c>
     </row>
@@ -31392,86 +32831,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AE00C6-5C26-44E3-86D4-07892AA0738B}">
-  <dimension ref="A1:B10"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61E5C6C-6026-4C98-977D-4AB3FDABC9FE}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="B1">
-        <f>AVERAGE(Enrollment!G:G)</f>
-        <v>509.29166666666669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B2">
-        <f>MEDIAN(Enrollment!G:G)</f>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="B3">
-        <f>MIN(Enrollment!G:G)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="B4">
-        <f>MAX(Enrollment!G:G)</f>
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="B8" s="9" t="str">
-        <f>_xlfn.XLOOKUP(B3,Enrollment!G:G,Enrollment!D:D)</f>
-        <v>Transitions at Bass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="B9" s="6" t="str">
-        <f>_xlfn.XLOOKUP(B4,Enrollment!G:G,Enrollment!D:D)</f>
-        <v>McGavock High</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="20">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B4" s="21">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="21">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="21">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="21">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="21">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="21">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="21">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="21">
+        <v>2898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="21">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="21">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="21">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="21">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="21">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="21">
+        <v>4618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="21">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="21">
+        <v>6214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="21">
+        <v>10826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="21">
+        <v>15027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>675</v>
+      </c>
+      <c r="B29" s="22">
+        <v>85561</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>